--- a/仕様や企画や/RoboPliers仕様書.xlsx
+++ b/仕様や企画や/RoboPliers仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="935" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="935" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="情報" sheetId="14" r:id="rId1"/>
@@ -25,17 +25,16 @@
     <sheet name="障害物" sheetId="15" r:id="rId11"/>
     <sheet name="滑る" sheetId="25" r:id="rId12"/>
     <sheet name="固定物つかんでるとき" sheetId="18" r:id="rId13"/>
-    <sheet name="カーソル" sheetId="29" r:id="rId14"/>
-    <sheet name="曲げる" sheetId="19" r:id="rId15"/>
-    <sheet name="プレイヤー" sheetId="6" r:id="rId16"/>
-    <sheet name="簡単モード" sheetId="17" r:id="rId17"/>
-    <sheet name="スタート時" sheetId="27" r:id="rId18"/>
-    <sheet name="チュートリアル" sheetId="5" r:id="rId19"/>
-    <sheet name="ポーズ画面" sheetId="9" r:id="rId20"/>
-    <sheet name="リザルト" sheetId="8" r:id="rId21"/>
-    <sheet name="ロード中" sheetId="26" r:id="rId22"/>
-    <sheet name="ゲームオーバー" sheetId="12" r:id="rId23"/>
-    <sheet name="基本操作" sheetId="10" r:id="rId24"/>
+    <sheet name="曲げる" sheetId="19" r:id="rId14"/>
+    <sheet name="プレイヤー" sheetId="6" r:id="rId15"/>
+    <sheet name="簡単モード" sheetId="17" r:id="rId16"/>
+    <sheet name="スタート時" sheetId="27" r:id="rId17"/>
+    <sheet name="チュートリアル" sheetId="5" r:id="rId18"/>
+    <sheet name="ポーズ画面" sheetId="9" r:id="rId19"/>
+    <sheet name="リザルト" sheetId="8" r:id="rId20"/>
+    <sheet name="ロード中" sheetId="26" r:id="rId21"/>
+    <sheet name="ゲームオーバー" sheetId="12" r:id="rId22"/>
+    <sheet name="基本操作" sheetId="10" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="778">
   <si>
     <t>RoboPliers仕様書</t>
     <rPh sb="10" eb="13">
@@ -7732,34 +7731,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・白い壁到着後0.5秒後に文字が浮かび上がる。</t>
-    <rPh sb="1" eb="2">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウチャク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ビョウゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニュー画面の時をほぼほぼ同じ仕組み</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -8354,9 +8325,6 @@
     <t>右スティックを倒してアームを動かして下さい。</t>
   </si>
   <si>
-    <t>UAV-B1、XG-2の救出に成功しました、これより捜索エリアに帰還します。。</t>
-  </si>
-  <si>
     <t>この段差であれば、左スティックのボタンを押し込んでジャンプで乗り越えられます。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -8373,10 +8341,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>L_damagecamera.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>L_disposal.wav</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -8401,14 +8365,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>L_movement.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L_armmove.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>L_jump.wav</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -8421,9 +8377,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この鉄板が使えそうですね</t>
-  </si>
-  <si>
     <t>アームを動かして照準を鉄板に合わせてR2ボタンではさんでください。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -8432,24 +8385,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャンプでは反対側には行けなさそうです。</t>
-  </si>
-  <si>
     <t>中間にある鉄パイプを挟んでください。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>もう少し近づいてください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>はさんだ状態で下方向にアームを動かして機体を持ち上げてください。</t>
-  </si>
-  <si>
-    <t>アームを左右に動かして機体の位置をずらしてください。</t>
-  </si>
-  <si>
-    <t>足場が壊れているようです。橋代わりになる物を探しましょう。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9129,16 +9069,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・矢印キーを入力したときSE『select.wav』</t>
-    <rPh sb="1" eb="3">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>back.wav</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -9148,14 +9078,6 @@
   </si>
   <si>
     <t>select.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>xg-2sand01.wav</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>xg-2sand02.wav</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9193,9 +9115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△(mp3)</t>
-  </si>
-  <si>
     <t>fallbeton.wav</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -9232,18 +9151,290 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">xg-2jump.wav </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ボタンを押した１秒後に下の文字が下から上に上がっていく。</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・矢印キーを入力したときSE『select.wav』を再生</t>
+    <rPh sb="1" eb="3">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※↑の欄で空白はループ無し</t>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動する時SE『xg-2walk.wav 』を再生</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ旋回で本体が回った時のみSE『xg-2walk.wav 』を再生</t>
+    <rPh sb="3" eb="5">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アームが切り替わるときSE『xg-2armmove.wav』を再生</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xg-2sand01.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xg-2sand02.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物を挟むときはSE『xg-2sand01.wav』、何もないとこで挟む場合SE『xg-2sand02.wav』を再生</t>
+    <rPh sb="0" eb="1">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプしたときにSE『xg-2jump.wav 』を再生</t>
+    <rPh sb="27" eb="29">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L_damagecamera.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L_movement.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L_armmove.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足場が壊れているようです。橋代わりになる物を探しましょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この鉄板が使えそうですね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプでは反対側には行けなさそうです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はさんだ状態で下方向にアームを動かして機体を持ち上げてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アームを左右に動かして機体の位置をずらしてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UAV-B1、XG-2の救出に成功しました、これより捜索エリアに帰還します。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルトコンベア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタンプが落ちる音</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アームの手首回転</t>
+    <rPh sb="4" eb="6">
+      <t>テクビ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>xg-2armmove.wav</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">xg-2jump.wav </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△(微妙)</t>
+    <t>xg-2armspin.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beltconveyer.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stamp.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この施設は爆発事故により廃棄せざる負えなくなりました。赤く光ってる扉が出口です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アームで動かせそうな物をはさんで橋を作ってみてください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アームで鉄棒を挟んでからR1、L1でアームを回転させると、鉄棒を曲げる事ができます</t>
+  </si>
+  <si>
+    <t>さらに固定物を掴んでアームを動かすと、自機を持ち上げる事ができます
+複数のアームを使って鉄棒を便って見てください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LP_redlight.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LP_armbridge.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LP_positionchange.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LP_positionchange.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>救助ヘリのプロペラ音</t>
+    <rPh sb="0" eb="2">
+      <t>キュウジョ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>helicopter.wav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棒を破壊したとき</t>
+    <rPh sb="0" eb="1">
+      <t>ボウ</t>
+    </rPh>
     <rPh sb="2" eb="4">
-      <t>ビミョウ</t>
-    </rPh>
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル正解音</t>
+    <rPh sb="7" eb="9">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yobi01.wav</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9352,7 +9543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -9856,6 +10047,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -9865,7 +10065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10178,11 +10378,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -10192,12 +10410,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -25585,7 +25797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -25598,10 +25810,10 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="109" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="4" t="s">
         <v>355</v>
       </c>
@@ -25840,16 +26052,16 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="113" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="107"/>
+      <c r="D2" s="113"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="112" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="106"/>
+      <c r="C3" s="112"/>
       <c r="D3" s="55"/>
     </row>
     <row r="5" spans="1:19" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.4">
@@ -26128,10 +26340,10 @@
       <c r="I52" t="s">
         <v>402</v>
       </c>
-      <c r="O52" s="107" t="s">
+      <c r="O52" s="113" t="s">
         <v>406</v>
       </c>
-      <c r="P52" s="107"/>
+      <c r="P52" s="113"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
@@ -26150,12 +26362,12 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.4">
@@ -26169,54 +26381,54 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B61" s="108" t="s">
+      <c r="B61" s="114" t="s">
         <v>560</v>
       </c>
-      <c r="C61" s="108"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="104" t="s">
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="109" t="s">
         <v>561</v>
       </c>
-      <c r="F61" s="104"/>
+      <c r="F61" s="109"/>
     </row>
     <row r="64" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -26302,7 +26514,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -26316,10 +26528,10 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="113" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="107"/>
+      <c r="D2" s="113"/>
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
@@ -26410,22 +26622,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -26618,7 +26817,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C40" s="80" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -26630,7 +26829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
@@ -26775,10 +26974,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="C33" s="107"/>
+      <c r="C33" s="113"/>
       <c r="D33" t="s">
         <v>158</v>
       </c>
@@ -26908,7 +27107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
@@ -26951,7 +27150,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
@@ -26976,37 +27175,37 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="23" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -27067,7 +27266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -27097,6 +27296,109 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>571</v>
+      </c>
+      <c r="E7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>572</v>
+      </c>
+      <c r="E10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>582</v>
+      </c>
+      <c r="E13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -27119,11 +27421,11 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -27136,19 +27438,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="109" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="104"/>
+      <c r="B6" s="109"/>
       <c r="D6" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="109" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="104"/>
+      <c r="B7" s="109"/>
       <c r="D7" s="74" t="s">
         <v>494</v>
       </c>
@@ -27179,10 +27481,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="109" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="109"/>
       <c r="D11" t="s">
         <v>221</v>
       </c>
@@ -27209,10 +27511,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="109" t="s">
         <v>361</v>
       </c>
-      <c r="B15" s="104"/>
+      <c r="B15" s="109"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="58" t="s">
@@ -27259,109 +27561,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>572</v>
-      </c>
-      <c r="E7" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>497</v>
-      </c>
-      <c r="E8" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>503</v>
-      </c>
-      <c r="E9" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>573</v>
-      </c>
-      <c r="E10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>504</v>
-      </c>
-      <c r="E11" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>583</v>
-      </c>
-      <c r="E13" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>585</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
@@ -27461,73 +27660,73 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B23" s="103" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D23" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="F23" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C28" s="70" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B29" s="103" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -27542,7 +27741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -27629,7 +27828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -27653,22 +27852,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F4" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F5" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F6" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F7" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -27683,7 +27882,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -27695,7 +27894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -27706,10 +27905,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="105"/>
+      <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
@@ -27764,10 +27963,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M38"/>
+  <dimension ref="A3:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -27786,39 +27985,39 @@
   <sheetData>
     <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="23" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="85" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>595</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="D4" s="84" t="s">
+        <v>603</v>
+      </c>
+      <c r="E4" s="84" t="s">
         <v>596</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>604</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>597</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>53</v>
       </c>
       <c r="I4" s="85" t="s">
+        <v>594</v>
+      </c>
+      <c r="J4" s="84" t="s">
         <v>595</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="K4" s="84" t="s">
+        <v>630</v>
+      </c>
+      <c r="L4" s="84" t="s">
         <v>596</v>
-      </c>
-      <c r="K4" s="84" t="s">
-        <v>631</v>
-      </c>
-      <c r="L4" s="84" t="s">
-        <v>597</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>53</v>
@@ -27826,10 +28025,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B5" s="86" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D5" s="96" t="s">
         <v>4</v>
@@ -27839,49 +28038,49 @@
       </c>
       <c r="F5" s="81"/>
       <c r="I5" s="88" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J5" s="91" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K5" s="95" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L5" s="95"/>
       <c r="M5" s="83"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B6" s="86" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C6" s="89" t="s">
+        <v>597</v>
+      </c>
+      <c r="D6" s="96" t="s">
         <v>598</v>
-      </c>
-      <c r="D6" s="96" t="s">
-        <v>599</v>
       </c>
       <c r="E6" s="89" t="s">
         <v>82</v>
       </c>
       <c r="F6" s="81"/>
       <c r="I6" s="86" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K6" s="96" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L6" s="96"/>
       <c r="M6" s="81"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C7" s="89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D7" s="96" t="s">
         <v>13</v>
@@ -27891,678 +28090,813 @@
       </c>
       <c r="F7" s="81"/>
       <c r="I7" s="86" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K7" s="96" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L7" s="96"/>
       <c r="M7" s="81"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B8" s="86" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E8" s="89"/>
       <c r="F8" s="81"/>
       <c r="I8" s="86" t="s">
-        <v>646</v>
+        <v>748</v>
       </c>
       <c r="J8" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K8" s="96" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L8" s="96"/>
       <c r="M8" s="81"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B9" s="86" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C9" s="89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D9" s="96" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E9" s="89"/>
       <c r="F9" s="81"/>
       <c r="I9" s="86" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="J9" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K9" s="96" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L9" s="96"/>
       <c r="M9" s="81"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="87" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D10" s="97" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E10" s="90"/>
       <c r="F10" s="82"/>
       <c r="I10" s="86" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="J10" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K10" s="96" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="L10" s="96"/>
       <c r="M10" s="81"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I11" s="86" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="J11" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K11" s="96" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="L11" s="96"/>
       <c r="M11" s="81"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I12" s="86" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K12" s="96" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L12" s="96"/>
       <c r="M12" s="81"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="23" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="I13" s="86" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="J13" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K13" s="96" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L13" s="96"/>
       <c r="M13" s="81"/>
     </row>
     <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="85" t="s">
+        <v>594</v>
+      </c>
+      <c r="C14" s="84" t="s">
         <v>595</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="D14" s="84" t="s">
+        <v>671</v>
+      </c>
+      <c r="E14" s="84" t="s">
         <v>596</v>
       </c>
-      <c r="D14" s="84" t="s">
-        <v>681</v>
-      </c>
-      <c r="E14" s="84" t="s">
-        <v>597</v>
-      </c>
       <c r="F14" s="13" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="I14" s="86" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="J14" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K14" s="96" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L14" s="96"/>
       <c r="M14" s="81"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B15" s="88" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D15" s="95" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E15" s="91"/>
-      <c r="F15" s="109" t="s">
-        <v>739</v>
+      <c r="F15" s="104" t="s">
+        <v>726</v>
       </c>
       <c r="I15" s="86" t="s">
-        <v>653</v>
+        <v>749</v>
       </c>
       <c r="J15" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K15" s="96" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="L15" s="96"/>
       <c r="M15" s="81"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B16" s="86" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="C16" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D16" s="96" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E16" s="89"/>
-      <c r="F16" s="110" t="s">
-        <v>739</v>
+      <c r="F16" s="105" t="s">
+        <v>726</v>
       </c>
       <c r="I16" s="86" t="s">
-        <v>654</v>
+        <v>750</v>
       </c>
       <c r="J16" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K16" s="96" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L16" s="96"/>
       <c r="M16" s="81"/>
     </row>
     <row r="17" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="87" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E17" s="90"/>
       <c r="F17" s="50" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="I17" s="101" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="J17" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K17" s="99" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="L17" s="96"/>
       <c r="M17" s="81"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="88" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D18" s="98" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E18" s="92"/>
-      <c r="F18" s="109" t="s">
-        <v>739</v>
+      <c r="F18" s="104" t="s">
+        <v>726</v>
       </c>
       <c r="I18" s="86" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="J18" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K18" s="96" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L18" s="96"/>
       <c r="M18" s="81"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="86" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D19" s="99" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E19" s="93"/>
-      <c r="F19" s="110" t="s">
-        <v>739</v>
+      <c r="F19" s="105" t="s">
+        <v>726</v>
       </c>
       <c r="I19" s="101" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="J19" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>666</v>
+        <v>751</v>
       </c>
       <c r="L19" s="96"/>
       <c r="M19" s="81"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="86" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="C20" s="93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E20" s="93"/>
-      <c r="F20" s="110" t="s">
-        <v>739</v>
+      <c r="F20" s="105" t="s">
+        <v>726</v>
       </c>
       <c r="I20" s="101" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="J20" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>658</v>
+        <v>752</v>
       </c>
       <c r="L20" s="96"/>
       <c r="M20" s="81"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="86" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C21" s="93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D21" s="99" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E21" s="93"/>
-      <c r="F21" s="110" t="s">
-        <v>739</v>
+      <c r="F21" s="105" t="s">
+        <v>726</v>
       </c>
       <c r="I21" s="101" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="J21" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="L21" s="96"/>
       <c r="M21" s="81"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="86" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="C22" s="93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D22" s="99" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E22" s="93"/>
-      <c r="F22" s="110" t="s">
-        <v>739</v>
+      <c r="F22" s="105" t="s">
+        <v>726</v>
       </c>
       <c r="I22" s="101" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="J22" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="L22" s="96"/>
       <c r="M22" s="81"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" s="86" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D23" s="99" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E23" s="93"/>
-      <c r="F23" s="110" t="s">
-        <v>739</v>
+      <c r="F23" s="105" t="s">
+        <v>726</v>
       </c>
       <c r="I23" s="102" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="J23" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="L23" s="96"/>
       <c r="M23" s="81"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="86" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D24" s="99" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E24" s="93"/>
-      <c r="F24" s="110" t="s">
-        <v>739</v>
+      <c r="F24" s="105" t="s">
+        <v>726</v>
       </c>
       <c r="I24" s="102" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="J24" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>661</v>
+        <v>753</v>
       </c>
       <c r="L24" s="96"/>
       <c r="M24" s="81"/>
     </row>
-    <row r="25" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="87" t="s">
-        <v>736</v>
-      </c>
-      <c r="C25" s="94" t="s">
-        <v>603</v>
-      </c>
-      <c r="D25" s="100" t="s">
-        <v>615</v>
-      </c>
-      <c r="E25" s="94" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B25" s="86" t="s">
+        <v>761</v>
+      </c>
+      <c r="C25" s="89" t="s">
+        <v>602</v>
+      </c>
+      <c r="D25" s="99" t="s">
+        <v>759</v>
+      </c>
+      <c r="E25" s="96"/>
+      <c r="F25" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="50" t="s">
-        <v>753</v>
-      </c>
       <c r="I25" s="102" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="J25" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="L25" s="96"/>
       <c r="M25" s="81"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B26" s="88" t="s">
-        <v>740</v>
-      </c>
-      <c r="C26" s="91" t="s">
-        <v>629</v>
-      </c>
-      <c r="D26" s="98" t="s">
-        <v>619</v>
-      </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="109" t="s">
-        <v>739</v>
+    <row r="26" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="87" t="s">
+        <v>723</v>
+      </c>
+      <c r="C26" s="94" t="s">
+        <v>602</v>
+      </c>
+      <c r="D26" s="100" t="s">
+        <v>614</v>
+      </c>
+      <c r="E26" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="I26" s="102" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="J26" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>664</v>
+        <v>754</v>
       </c>
       <c r="L26" s="96"/>
       <c r="M26" s="81"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B27" s="86" t="s">
-        <v>750</v>
-      </c>
-      <c r="C27" s="89" t="s">
-        <v>630</v>
-      </c>
-      <c r="D27" s="99" t="s">
-        <v>620</v>
-      </c>
-      <c r="E27" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="110" t="s">
-        <v>741</v>
+      <c r="B27" s="88" t="s">
+        <v>727</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>628</v>
+      </c>
+      <c r="D27" s="98" t="s">
+        <v>618</v>
+      </c>
+      <c r="E27" s="95"/>
+      <c r="F27" s="104" t="s">
+        <v>726</v>
       </c>
       <c r="I27" s="102" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="J27" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>665</v>
+        <v>755</v>
       </c>
       <c r="L27" s="96"/>
       <c r="M27" s="81"/>
     </row>
-    <row r="28" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" s="86" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D28" s="99" t="s">
-        <v>621</v>
-      </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="110" t="s">
-        <v>741</v>
-      </c>
-      <c r="I28" s="87" t="s">
-        <v>677</v>
-      </c>
-      <c r="J28" s="90" t="s">
-        <v>603</v>
-      </c>
-      <c r="K28" s="97" t="s">
-        <v>641</v>
-      </c>
-      <c r="L28" s="97"/>
-      <c r="M28" s="82"/>
+        <v>619</v>
+      </c>
+      <c r="E28" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="102" t="s">
+        <v>768</v>
+      </c>
+      <c r="J28" s="89" t="s">
+        <v>602</v>
+      </c>
+      <c r="K28" s="107" t="s">
+        <v>764</v>
+      </c>
+      <c r="L28" s="96"/>
+      <c r="M28" s="81"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C29" s="89" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D29" s="99" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E29" s="96"/>
-      <c r="F29" s="110" t="s">
-        <v>739</v>
-      </c>
+      <c r="F29" s="105" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="102" t="s">
+        <v>769</v>
+      </c>
+      <c r="J29" s="89" t="s">
+        <v>602</v>
+      </c>
+      <c r="K29" s="108" t="s">
+        <v>765</v>
+      </c>
+      <c r="L29" s="96"/>
+      <c r="M29" s="81"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" s="86" t="s">
+        <v>735</v>
+      </c>
+      <c r="C30" s="89" t="s">
+        <v>629</v>
+      </c>
+      <c r="D30" s="99" t="s">
+        <v>621</v>
+      </c>
+      <c r="E30" s="96"/>
+      <c r="F30" s="105" t="s">
+        <v>726</v>
+      </c>
+      <c r="I30" s="102" t="s">
+        <v>770</v>
+      </c>
+      <c r="J30" s="89" t="s">
+        <v>602</v>
+      </c>
+      <c r="K30" t="s">
+        <v>766</v>
+      </c>
+      <c r="L30" s="96"/>
+      <c r="M30" s="81"/>
+    </row>
+    <row r="31" spans="2:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B31" s="86" t="s">
+        <v>615</v>
+      </c>
+      <c r="C31" s="89" t="s">
+        <v>629</v>
+      </c>
+      <c r="D31" s="99" t="s">
+        <v>621</v>
+      </c>
+      <c r="E31" s="96"/>
+      <c r="F31" s="105" t="s">
+        <v>726</v>
+      </c>
+      <c r="I31" s="102" t="s">
+        <v>771</v>
+      </c>
+      <c r="J31" s="89" t="s">
+        <v>602</v>
+      </c>
+      <c r="K31" s="106" t="s">
+        <v>767</v>
+      </c>
+      <c r="L31" s="96"/>
+      <c r="M31" s="81"/>
+    </row>
+    <row r="32" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="86" t="s">
         <v>616</v>
       </c>
-      <c r="C30" s="89" t="s">
-        <v>630</v>
-      </c>
-      <c r="D30" s="99" t="s">
-        <v>622</v>
-      </c>
-      <c r="E30" s="96"/>
-      <c r="F30" s="110" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B31" s="86" t="s">
-        <v>617</v>
-      </c>
-      <c r="C31" s="89" t="s">
-        <v>630</v>
-      </c>
-      <c r="D31" s="99" t="s">
-        <v>622</v>
-      </c>
-      <c r="E31" s="96"/>
-      <c r="F31" s="110" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B32" s="86" t="s">
-        <v>618</v>
-      </c>
       <c r="C32" s="89" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D32" s="99" t="s">
-        <v>622</v>
+        <v>774</v>
       </c>
       <c r="E32" s="96"/>
-      <c r="F32" s="110" t="s">
-        <v>739</v>
-      </c>
+      <c r="F32" s="105" t="s">
+        <v>726</v>
+      </c>
+      <c r="I32" s="87" t="s">
+        <v>667</v>
+      </c>
+      <c r="J32" s="90" t="s">
+        <v>602</v>
+      </c>
+      <c r="K32" s="97" t="s">
+        <v>756</v>
+      </c>
+      <c r="L32" s="97"/>
+      <c r="M32" s="82"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="86" t="s">
-        <v>745</v>
+        <v>617</v>
       </c>
       <c r="C33" s="89" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D33" s="99" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E33" s="96"/>
-      <c r="F33" s="110" t="s">
-        <v>739</v>
+      <c r="F33" s="105" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="86" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="C34" s="89" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D34" s="99" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E34" s="96"/>
-      <c r="F34" s="110" t="s">
-        <v>739</v>
+      <c r="F34" s="105" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="86" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D35" s="99" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E35" s="96"/>
-      <c r="F35" s="110" t="s">
-        <v>739</v>
+      <c r="F35" s="105" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="86" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="C36" s="89" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E36" s="96"/>
-      <c r="F36" s="110" t="s">
-        <v>739</v>
+      <c r="F36" s="105" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="86" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="C37" s="89" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D37" s="99" t="s">
         <v>626</v>
       </c>
       <c r="E37" s="96"/>
-      <c r="F37" s="110" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="87" t="s">
-        <v>743</v>
-      </c>
-      <c r="C38" s="90" t="s">
-        <v>603</v>
-      </c>
-      <c r="D38" s="100" t="s">
-        <v>628</v>
-      </c>
-      <c r="E38" s="97"/>
-      <c r="F38" s="50" t="s">
-        <v>739</v>
-      </c>
+      <c r="F37" s="105" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="86" t="s">
+        <v>734</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>629</v>
+      </c>
+      <c r="D38" s="99" t="s">
+        <v>625</v>
+      </c>
+      <c r="E38" s="96"/>
+      <c r="F38" s="105" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="86" t="s">
+        <v>762</v>
+      </c>
+      <c r="C39" s="89" t="s">
+        <v>602</v>
+      </c>
+      <c r="D39" s="99" t="s">
+        <v>757</v>
+      </c>
+      <c r="E39" s="89" t="s">
+        <v>775</v>
+      </c>
+      <c r="F39" s="105" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40" s="86" t="s">
+        <v>763</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>602</v>
+      </c>
+      <c r="D40" s="99" t="s">
+        <v>758</v>
+      </c>
+      <c r="E40" s="96"/>
+      <c r="F40" s="105" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="101" t="s">
+        <v>773</v>
+      </c>
+      <c r="C41" s="89" t="s">
+        <v>602</v>
+      </c>
+      <c r="D41" s="99" t="s">
+        <v>772</v>
+      </c>
+      <c r="E41" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="105" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="101" t="s">
+        <v>777</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>602</v>
+      </c>
+      <c r="D42" s="99" t="s">
+        <v>776</v>
+      </c>
+      <c r="E42" s="89"/>
+      <c r="F42" s="105" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="87" t="s">
+        <v>729</v>
+      </c>
+      <c r="C43" s="90" t="s">
+        <v>602</v>
+      </c>
+      <c r="D43" s="100" t="s">
+        <v>627</v>
+      </c>
+      <c r="E43" s="97"/>
+      <c r="F43" s="50" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="111" t="s">
+        <v>740</v>
+      </c>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B44:F44"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28573,8 +28907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28620,7 +28954,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G9" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -28643,7 +28977,7 @@
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.4">
       <c r="G19" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.4">
@@ -28663,27 +28997,27 @@
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.4">
       <c r="G26" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.4">
       <c r="G27" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.4">
       <c r="G28" s="8" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.4">
       <c r="G29" s="28" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -28701,8 +29035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28724,7 +29058,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>569</v>
+        <v>738</v>
       </c>
       <c r="K6" t="s">
         <v>523</v>
@@ -28735,7 +29069,7 @@
         <v>519</v>
       </c>
       <c r="E7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K7" t="s">
         <v>524</v>
@@ -28746,7 +29080,7 @@
         <v>497</v>
       </c>
       <c r="E8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -28754,7 +29088,7 @@
         <v>503</v>
       </c>
       <c r="E9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -28762,7 +29096,7 @@
         <v>504</v>
       </c>
       <c r="E10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -28772,7 +29106,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -28782,7 +29116,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -28854,8 +29188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28916,6 +29250,9 @@
       <c r="A20" s="23" t="s">
         <v>71</v>
       </c>
+      <c r="C20" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
@@ -29046,6 +29383,9 @@
       <c r="A46" s="23" t="s">
         <v>72</v>
       </c>
+      <c r="C46" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B47" s="4" t="s">
@@ -29110,6 +29450,9 @@
       <c r="A62" s="23" t="s">
         <v>83</v>
       </c>
+      <c r="C62" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
@@ -29204,6 +29547,9 @@
       <c r="A83" t="s">
         <v>265</v>
       </c>
+      <c r="C83" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
@@ -29242,10 +29588,10 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C90" s="106" t="s">
+      <c r="C90" s="112" t="s">
         <v>354</v>
       </c>
-      <c r="D90" s="106"/>
+      <c r="D90" s="112"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C91" s="4" t="s">
@@ -29253,11 +29599,11 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C92" s="104" t="s">
+      <c r="C92" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="D92" s="104"/>
-      <c r="E92" s="104"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="109"/>
     </row>
     <row r="94" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="7" t="s">
@@ -29303,6 +29649,9 @@
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>282</v>
+      </c>
+      <c r="C103" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
@@ -29525,21 +29874,21 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="104"/>
+      <c r="E2" s="109"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="112" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107" t="s">
+      <c r="C3" s="112"/>
+      <c r="D3" s="113" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
